--- a/Esfuerzo_Muestreo.xlsx
+++ b/Esfuerzo_Muestreo.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,10 +465,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="44" customWidth="1" min="2" max="2"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -484,15 +486,25 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
+          <t>Bgr</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Bfvs</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>Bda</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Bdb</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -506,16 +518,22 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Nú de individuos</t>
+          <t>Número de individuos</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
+        <v>160</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>243</v>
+      </c>
+      <c r="E2" s="3" t="n">
         <v>1683</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="F2" s="3" t="n">
         <v>713</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="G2" s="3" t="n">
         <v>2799</v>
       </c>
     </row>
@@ -531,12 +549,18 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="n">
         <v>108</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="F3" s="3" t="n">
         <v>78</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="G3" s="3" t="n">
         <v>228</v>
       </c>
     </row>
@@ -548,16 +572,22 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Éito de captura (individuos/horas-hombre)</t>
+          <t>Éxito de captura (individuos/horas-hombre)</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
+        <v>13.333</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E4" s="3" t="n">
         <v>15.583</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="F4" s="3" t="n">
         <v>9.141</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="G4" s="3" t="n">
         <v>12.276</v>
       </c>
     </row>
@@ -569,16 +599,26 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Nú de individuos</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
+          <t>Número de individuos</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="F5" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="G5" s="3" t="n">
         <v>16</v>
       </c>
     </row>
@@ -593,13 +633,23 @@
           <t>Esfuerzo captura (horas-hombre)</t>
         </is>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="F6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="G6" s="3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -611,16 +661,26 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Éito de captura (individuos/horas-hombre)</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
+          <t>Éxito de captura (individuos/horas-hombre)</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
         <v>1.833</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="F7" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="G7" s="3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -632,16 +692,24 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Nú de individuos</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="n">
+          <t>Número de individuos</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="F8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="G8" s="3" t="n">
         <v>13</v>
       </c>
     </row>
@@ -656,13 +724,21 @@
           <t>Esfuerzo captura (horas-hombre)</t>
         </is>
       </c>
-      <c r="C9" s="3" t="n">
-        <v>9</v>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="D9" s="3" t="n">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3" t="n">
         <v>13</v>
       </c>
     </row>
@@ -674,16 +750,24 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Éito de captura (individuos/horas-hombre)</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="n">
+          <t>Éxito de captura (individuos/horas-hombre)</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="3" t="n">
         <v>1.111</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="F10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="G10" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,16 +779,26 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Nú de individuos</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n">
+          <t>Número de individuos</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="F11" s="3" t="n">
         <v>68</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="G11" s="3" t="n">
         <v>85</v>
       </c>
     </row>
@@ -719,13 +813,23 @@
           <t>Esfuerzo captura (horas-hombre)</t>
         </is>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>1080</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="F12" s="3" t="n">
         <v>1080</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="G12" s="3" t="n">
         <v>2160</v>
       </c>
     </row>
@@ -737,16 +841,26 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Éito de captura (individuos/horas-hombre)</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="n">
+          <t>Éxito de captura (individuos/horas-hombre)</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>0.016</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="F13" s="3" t="n">
         <v>0.063</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="G13" s="3" t="n">
         <v>0.039</v>
       </c>
     </row>
